--- a/Experiment 1 - Indoors 2.4GHz/Testing results.xlsx
+++ b/Experiment 1 - Indoors 2.4GHz/Testing results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e6bcb7461c737c24/Documents/3rd Year - Final/CE301 - Individual project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e6bcb7461c737c24/Documents/3rd Year - Final/GitLab/Experiment 1 - Indoors 2.4GHz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EA3B30D-30B0-47ED-BEA0-B3F375088ED3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{0EA3B30D-30B0-47ED-BEA0-B3F375088ED3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2C38758A-A0F8-4E29-A5D9-A4A546560EB2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{974492AF-337F-4463-88BA-59905D07B8E7}"/>
   </bookViews>
@@ -16,21 +16,17 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$4:$A$20</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1:$B$3</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$B$1:$B$3</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$B$4:$B$20</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$A$4:$A$20</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$1:$B$3</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$B$4:$B$20</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$4:$B$20</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$4:$A$20</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$1:$B$3</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$4:$B$20</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$4:$A$20</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$1:$B$3</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$4:$B$20</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$A$4:$A$20</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$3:$A$20</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$3:$A$21</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$B$4:$B$21</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$4:$A$20</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$4:$A$21</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$1:$B$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$1:$B$3</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$2:$B$3</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$3:$B$20</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$3:$B$21</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$4:$B$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -110,7 +106,7 @@
     <t>Bathroom(East side)</t>
   </si>
   <si>
-    <t>Signal Strength (dbm)</t>
+    <t>Signal Strength (dBm)</t>
   </si>
 </sst>
 </file>
@@ -170,10 +166,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -208,8 +204,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{83F8CFD5-043B-4876-9BC1-F4847DDD514F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
-              <cx:v>Signal Strength (dbm)</cx:v>
+              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:v>Signal Strength (dBm)</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="0"/>
@@ -927,6 +923,20 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8B5077F6-761B-42F1-86B5-C66766DF746F}" name="Table2" displayName="Table2" ref="A3:B20" totalsRowShown="0">
+  <autoFilter ref="A3:B20" xr:uid="{630B1BBF-046D-4427-B5DC-29A0B9A4CCD4}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{B79C0BAE-C77A-4755-B2C3-9D70F9D995CD}" name="Area"/>
+    <tableColumn id="2" xr3:uid="{DC8558E3-B0D6-49C8-8A15-F5796C332910}" name="Signal Strength (dBm)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1229,13 +1239,13 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B20"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1390,5 +1400,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Experiment 1 - Indoors 2.4GHz/Testing results.xlsx
+++ b/Experiment 1 - Indoors 2.4GHz/Testing results.xlsx
@@ -16,17 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$3:$A$20</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$3:$A$21</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$B$4:$B$21</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$4:$A$20</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$4:$A$21</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$1:$B$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$1:$B$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$2:$B$3</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$3:$B$20</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$3:$B$21</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$4:$B$20</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$4:$A$20</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1:$B$3</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$4:$B$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -166,10 +158,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -204,7 +196,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{83F8CFD5-043B-4876-9BC1-F4847DDD514F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Signal Strength (dBm)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -891,7 +883,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3459480" y="182880"/>
+              <a:off x="3581400" y="182880"/>
               <a:ext cx="5913120" cy="3836670"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1239,7 +1231,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="A3" sqref="A3:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
